--- a/datasource.xlsx
+++ b/datasource.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\nutricion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C4148E3-9CC8-478E-9C0E-202074E0028D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19FDCC98-2897-4741-BAC8-2B5D2A63EE00}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3150" yWindow="3075" windowWidth="15375" windowHeight="7995" xr2:uid="{0DF0EF01-2974-4492-922E-51212D30CC96}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{0DF0EF01-2974-4492-922E-51212D30CC96}"/>
   </bookViews>
   <sheets>
     <sheet name="horario_comida" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="126">
   <si>
     <t>DESAYUNO</t>
   </si>
@@ -408,9 +408,6 @@
   </si>
   <si>
     <t>NOMBRE</t>
-  </si>
-  <si>
-    <t>LACTEO</t>
   </si>
   <si>
     <t>PORCENTAJE</t>
@@ -1024,7 +1021,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91FD6FE4-CDC7-4A1E-939E-85D62515BC5F}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -1048,7 +1045,7 @@
         <v>124</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1131,7 +1128,7 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1571,8 +1568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28C128CE-CF5A-49D7-8274-49B77DC6FDE6}">
   <dimension ref="A1:J85"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="F86" sqref="F86"/>
+    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4029,7 +4026,7 @@
     </row>
     <row r="75" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="40" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="B75" s="7">
         <f t="shared" si="1"/>
@@ -4062,7 +4059,7 @@
     </row>
     <row r="76" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="40" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="B76" s="7">
         <f t="shared" si="1"/>
@@ -4095,7 +4092,7 @@
     </row>
     <row r="77" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="40" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="B77" s="7">
         <f t="shared" si="1"/>
